--- a/configure/table/enum.xlsx
+++ b/configure/table/enum.xlsx
@@ -30,10 +30,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>E|登录类型-空|LoginType|None|0</t>
-  </si>
-  <si>
-    <t>E|平台类型-空|Platform|None|0</t>
+    <t>E|登录类型-空|LoginType|LoginTypeNone|0</t>
+  </si>
+  <si>
+    <t>E|平台类型-空|Platform|PlatformTypeNone|0</t>
   </si>
   <si>
     <t>E|节点类型-Client|NodeType|Client|0</t>
@@ -1012,14 +1012,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="43.5865384615385" customWidth="1"/>
     <col min="2" max="2" width="44.7019230769231" customWidth="1"/>
-    <col min="3" max="3" width="38.9326923076923" customWidth="1"/>
+    <col min="3" max="3" width="43.9134615384615" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/configure/table/enum.xlsx
+++ b/configure/table/enum.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12840"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="全局枚举表" sheetId="3" r:id="rId1"/>
@@ -1011,15 +1011,15 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="43.5865384615385" customWidth="1"/>
-    <col min="2" max="2" width="44.7019230769231" customWidth="1"/>
-    <col min="3" max="3" width="43.9134615384615" customWidth="1"/>
+    <col min="1" max="1" width="43.5833333333333" customWidth="1"/>
+    <col min="2" max="2" width="44.7" customWidth="1"/>
+    <col min="3" max="3" width="43.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1093,11 +1093,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="65.125" customWidth="1"/>
   </cols>
